--- a/zlata/2024-08-17_The_verb_build.xlsx
+++ b/zlata/2024-08-17_The_verb_build.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Я строю дом.</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>Они не строят дом?</t>
+  </si>
+  <si>
+    <t>Ты строишь дом сейчас?</t>
+  </si>
+  <si>
+    <t>Ты строишь дом сейчас.</t>
+  </si>
+  <si>
+    <t>Ты строишь дом.</t>
   </si>
 </sst>
 </file>
@@ -472,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -666,6 +675,46 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
